--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FBE69-1A26-46BA-BE7B-1E7F8528DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279DF679-47B1-4831-A8CD-6FF02CE5F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Key</t>
   </si>
@@ -57,27 +57,6 @@
   </si>
   <si>
     <t>Santha@2475</t>
-  </si>
-  <si>
-    <t>doctorname</t>
-  </si>
-  <si>
-    <t>clinicaddress</t>
-  </si>
-  <si>
-    <t>Enter Doctor Contact no</t>
-  </si>
-  <si>
-    <t>Enter Doctor Consultancy Fees</t>
-  </si>
-  <si>
-    <t>Enter Doctor Email id</t>
-  </si>
-  <si>
-    <t>New Password</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
   </si>
   <si>
     <t>key</t>
@@ -416,7 +395,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,79 +426,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639B235-062C-436D-B498-721A0848DF92}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -532,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,23 +498,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>9876543210</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279DF679-47B1-4831-A8CD-6FF02CE5F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282B68C-3F61-462C-8C59-F8D29C4EACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
-    <sheet name="Doctor_Details__AdminModule" sheetId="2" r:id="rId2"/>
+    <sheet name="Doctor_Details_AdminModule" sheetId="2" r:id="rId2"/>
     <sheet name="AddPatientWithMedicalHistory_Do" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>doctorspecilization</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Urology_</t>
   </si>
@@ -59,29 +50,46 @@
     <t>Santha@2475</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>Enter Patient Name</t>
-  </si>
-  <si>
     <t>Raja_</t>
   </si>
   <si>
-    <t>Enter Patient Contact no</t>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>abc@mail.com</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>12-hh</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ab+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,16 +112,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,31 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -428,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639B235-062C-436D-B498-721A0848DF92}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,89 +434,100 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9876543210</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E9EE58B7-F86C-4E93-AB1B-ACDCFA30461E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282B68C-3F61-462C-8C59-F8D29C4EACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DADB98C-6AF0-4149-986F-F249D41061A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
@@ -50,46 +50,38 @@
     <t>Santha@2475</t>
   </si>
   <si>
-    <t>Raja_</t>
-  </si>
-  <si>
-    <t>Urology</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>abc@mail.com</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
-    <t>12-hh</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ab+</t>
+    <t>Blood group: AB+</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>9955660085</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Urology_1892</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,19 +104,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639B235-062C-436D-B498-721A0848DF92}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,43 +421,29 @@
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -482,52 +457,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E9EE58B7-F86C-4E93-AB1B-ACDCFA30461E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DADB98C-6AF0-4149-986F-F249D41061A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32690547-46D4-4A4B-83F7-A12E20BBA075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,12 +413,13 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32690547-46D4-4A4B-83F7-A12E20BBA075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B360514-F733-46EB-A989-DB4595F82700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
     <sheet name="Doctor_Details_AdminModule" sheetId="2" r:id="rId2"/>
-    <sheet name="AddPatientWithMedicalHistory_Do" sheetId="3" r:id="rId3"/>
+    <sheet name="editDoctorDetails_AdminModuleTe" sheetId="4" r:id="rId3"/>
+    <sheet name="AddPatientWithMedicalHistory_Do" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Urology_</t>
   </si>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>Urology_1892</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
@@ -394,7 +407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -412,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639B235-062C-436D-B498-721A0848DF92}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -455,6 +470,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B072A-3A83-472F-B1DE-BB02F580A93B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B360514-F733-46EB-A989-DB4595F82700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13EA74-0F52-487C-BB9E-62B34D79947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
     <sheet name="Doctor_Details_AdminModule" sheetId="2" r:id="rId2"/>
     <sheet name="editDoctorDetails_AdminModuleTe" sheetId="4" r:id="rId3"/>
     <sheet name="AddPatientWithMedicalHistory_Do" sheetId="3" r:id="rId4"/>
+    <sheet name="BookAppointment_PatientModule" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Urology_</t>
   </si>
@@ -85,6 +86,18 @@
   </si>
   <si>
     <t>9999999999</t>
+  </si>
+  <si>
+    <t>Specialization23rdsep</t>
+  </si>
+  <si>
+    <t>doctor23rdsep</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
   </si>
 </sst>
 </file>
@@ -120,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -500,47 +514,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA71839-873F-42F2-938E-FE7A0827A3DA}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C771419-F321-46AF-8B8F-8727D0039A4C}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium Practice\com.hms.royalFreeHospital\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13EA74-0F52-487C-BB9E-62B34D79947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20341E1F-184B-4C3F-A029-553598EB9D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor_Specialization_AdminModu" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Urology_</t>
   </si>
@@ -98,13 +98,79 @@
   </si>
   <si>
     <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>Ortho_</t>
+  </si>
+  <si>
+    <t>Doctor Specialization Name</t>
+  </si>
+  <si>
+    <t>Spec Name</t>
+  </si>
+  <si>
+    <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Doctor fee</t>
+  </si>
+  <si>
+    <t>Mob no</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Urology_55071</t>
+  </si>
+  <si>
+    <t>Prasad</t>
+  </si>
+  <si>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>prasad123@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasad@123</t>
+  </si>
+  <si>
+    <t>9696969696</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Prasad_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +178,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,16 +209,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,62 +526,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7639B235-062C-436D-B498-721A0848DF92}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -485,26 +669,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B072A-3A83-472F-B1DE-BB02F580A93B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C771419-F321-46AF-8B8F-8727D0039A4C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
